--- a/biology/Zoologie/Eirenis_modestus/Eirenis_modestus.xlsx
+++ b/biology/Zoologie/Eirenis_modestus/Eirenis_modestus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis modestus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis modestus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Arménie ;
 en Azerbaïdjan ;
 en Ciscaucasie ;
@@ -552,9 +566,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis modestus mesure jusqu'à 55 cm[1]. Son dos est brun clair, gris, brun ou beige rougeâtre. Sa face ventrale est jaune ou blanchâtre. Sa tête est ornée d'une tache noire qui peut s'estomper complètement sur les individus les plus âgés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis modestus mesure jusqu'à 55 cm. Son dos est brun clair, gris, brun ou beige rougeâtre. Sa face ventrale est jaune ou blanchâtre. Sa tête est ornée d'une tache noire qui peut s'estomper complètement sur les individus les plus âgés.
 Cette espèce se nourrit essentiellement d'insectes, mille-pattes et araignées.
 La ponte comportant de 3 à 8 œufs a lieu en juin-juillet. Les jeunes qui naissent en septembre mesurent entre 10 et 12 cm.
 </t>
@@ -585,9 +601,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Eirenis modestus cilicius Schmidtler, 1993
 Eirenis modestus modestus (Martin, 1838)
 Eirenis modestus semimaculatus (Boettger, 1876)</t>
@@ -618,9 +636,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, modestus, vient du latin modesta, « modéré, modeste », en référence à la taille modeste de cette couleuvre[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, modestus, vient du latin modesta, « modéré, modeste », en référence à la taille modeste de cette couleuvre.
 </t>
         </is>
       </c>
@@ -649,7 +669,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boettger, 1876 : Bemerkungen über einige Reptilien von Griechenland und von der Insel Chios. Bericht des Offenbacher Vereins für Naturkunde, vol. 1876, p. 55-64.
 Martin, 1839 : A Collection of snakes procured by the Euphrates Expedition. Proceedings of the Zoological Society of London, vol. 1838, p. 81-84 (texte intégral).
